--- a/report/結合_テスト結果_機能確認.xlsx
+++ b/report/結合_テスト結果_機能確認.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20401"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{756B2F3F-B5B0-4BFD-A29E-A3E902431B1E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22CFEEDD-C7CE-4298-A882-244E243AB8C0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>【バッチ】</t>
   </si>
@@ -33,21 +33,6 @@
     <t>【画面】</t>
   </si>
   <si>
-    <t>・加入者追加画面でバッチ稼働対象と対象外の加入者を作成する。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・料金情報追加画面でバッチ稼働対象と対象外の料金情報を作成する。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・バッチ稼働対象年月：2023年6月で実行。</t>
-    <rPh sb="19" eb="21">
-      <t>ジッコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>確認内容：</t>
     <rPh sb="0" eb="4">
       <t>カクニンナイヨウ</t>
@@ -67,65 +52,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>《バッチ対象加入者》</t>
-    <rPh sb="4" eb="6">
-      <t>タイショウ</t>
-    </rPh>
-    <rPh sb="6" eb="9">
-      <t>カニュウシャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>《バッチ対象外加入者》</t>
-    <rPh sb="4" eb="6">
-      <t>タイショウ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ガイ</t>
-    </rPh>
-    <rPh sb="7" eb="10">
-      <t>カニュウシャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>《バッチ対象外料金情報》</t>
-    <rPh sb="4" eb="6">
-      <t>タイショウ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ガイ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>リョウキン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ジョウホウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>《バッチ対象料金情報》</t>
-    <rPh sb="4" eb="6">
-      <t>タイショウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>リョウキン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ジョウホウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>《バッチ実行》</t>
-    <rPh sb="4" eb="6">
-      <t>ジッコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>《請求ステータス確認》</t>
     <rPh sb="1" eb="3">
       <t>セイキュウ</t>
@@ -154,6 +80,90 @@
       <t>メイサイ</t>
     </rPh>
     <rPh sb="8" eb="10">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①《バッチ対象加入者》</t>
+    <rPh sb="5" eb="7">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>カニュウシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>②《バッチ対象外加入者》</t>
+    <rPh sb="5" eb="7">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ガイ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>カニュウシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>③《バッチ対象料金情報》</t>
+    <rPh sb="5" eb="7">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>リョウキン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>④《バッチ対象外料金情報》</t>
+    <rPh sb="5" eb="7">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ガイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>リョウキン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・加入者追加画面で ①バッチ稼働対象 と ②対象外の加入者 を作成する。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・料金情報追加画面で ③バッチ稼働対象 と ④対象外の料金情報 を作成する。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・⑤バッチ稼働対象年月：2023年6月で実行。</t>
+    <rPh sb="20" eb="22">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⑤《バッチ実行》</t>
+    <rPh sb="5" eb="7">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>以下、確認</t>
+    <rPh sb="0" eb="2">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
       <t>カクニン</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -790,13 +800,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>12</xdr:colOff>
-      <xdr:row>124</xdr:row>
+      <xdr:row>125</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>142</xdr:row>
+      <xdr:row>143</xdr:row>
       <xdr:rowOff>153900</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -833,13 +843,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>13</xdr:colOff>
-      <xdr:row>145</xdr:row>
+      <xdr:row>146</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>57151</xdr:colOff>
-      <xdr:row>163</xdr:row>
+      <xdr:row>164</xdr:row>
       <xdr:rowOff>153900</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -876,13 +886,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>13</xdr:colOff>
-      <xdr:row>166</xdr:row>
+      <xdr:row>167</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>171451</xdr:colOff>
-      <xdr:row>184</xdr:row>
+      <xdr:row>185</xdr:row>
       <xdr:rowOff>153900</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1239,7 +1249,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q166"/>
+  <dimension ref="A1:Q167"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -1261,12 +1271,12 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">
@@ -1276,7 +1286,7 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.15">
@@ -1286,22 +1296,22 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.15">
@@ -1314,30 +1324,35 @@
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q52" t="s">
         <v>14</v>
-      </c>
-      <c r="Q52" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A124" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A145" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A166" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A125" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A146" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A167" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1349,6 +1364,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100C424317A42AA8449A97AAE94730ED181" ma:contentTypeVersion="6" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="9df5c7ff725c9e365f8a8503f6029c6b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="dab87824-9c6b-4a08-9c96-9c9ea904f12c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="98e3d8fd3bbedc5b58bd9df00d6be37e" ns2:_="">
     <xsd:import namespace="dab87824-9c6b-4a08-9c96-9c9ea904f12c"/>
@@ -1506,22 +1536,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8048152-0CA9-47E5-A6CC-6D3980A2E781}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25A96F8A-B775-40FD-BBE8-4BBDAB58FCAE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EFE06169-F6B9-4EE2-B032-3DCCE6AFCC5C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1537,21 +1569,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25A96F8A-B775-40FD-BBE8-4BBDAB58FCAE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8048152-0CA9-47E5-A6CC-6D3980A2E781}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>